--- a/texts/brick.xlsx
+++ b/texts/brick.xlsx
@@ -31,19 +31,19 @@
     <t xml:space="preserve">russian</t>
   </si>
   <si>
-    <t xml:space="preserve">Керпеч букъи буккала, гьеч1и ссеъа унщи хварде, ехха бехут1у лълъенила т1инду биччи бигъай амал игье.</t>
+    <t xml:space="preserve">Керпеч букъи буккала, гьечIи ссеъа унщи хварде, ехха бехутIу лълъенила тIинду биччи бигъай амал игье.</t>
   </si>
   <si>
     <t xml:space="preserve">Чтобы резать кирпич в первую очередь копают землю, потом наливают воду и делается глина.</t>
   </si>
   <si>
-    <t xml:space="preserve">Биччи бигъаата-к1о ригьуди бакьа никкула бигье.</t>
+    <t xml:space="preserve">Биччи бигъаата-кIо ригьуди бакьа никкула бигье.</t>
   </si>
   <si>
     <t xml:space="preserve">Когда мешают глину, тогда смешивают/ссыпают солому.</t>
   </si>
   <si>
-    <t xml:space="preserve">Эхха гьеъала рул1у биччи ц1ек1абалъиди мерхьу бул1а-риуди т1оргуда биччи данда игье.</t>
+    <t xml:space="preserve">Эхха гьеъала рулIу биччи цIекIабалъиди мерхьу булIа-риуди тIоргуда биччи данда игье.</t>
   </si>
   <si>
     <t xml:space="preserve">Потом ногами топчут эту глину. После окончания всю глину собирают в одном месте.</t>
@@ -55,31 +55,31 @@
     <t xml:space="preserve">Человек, который режет кирпич, имеет с собой форму и режет кирпич.</t>
   </si>
   <si>
-    <t xml:space="preserve">Керпеч букъихо адамий кумак игье цевла гьек1ващуди.</t>
+    <t xml:space="preserve">Керпеч букъихо адамий кумак игье цевла гьекIващуди.</t>
   </si>
   <si>
     <t xml:space="preserve">Человеку, который режет кирпич, помогает еще один человек.</t>
   </si>
   <si>
-    <t xml:space="preserve">Гьув гьек1ващуди биччи бекьара барл1е.</t>
+    <t xml:space="preserve">Гьув гьекIващуди биччи бекьара барлIе.</t>
   </si>
   <si>
     <t xml:space="preserve">Этот другой человек подносит глину поближе.</t>
   </si>
   <si>
-    <t xml:space="preserve">Керпеч букъихо адамиди кепилъи гьину биччила бук1о реъабалъиди биччи т1ибдай амал игье.</t>
+    <t xml:space="preserve">Керпеч букъихо адамиди кепилъи гьину биччила букIо реъабалъиди биччи тIибдай амал игье.</t>
   </si>
   <si>
     <t xml:space="preserve">Человек, который режет кирпич, кладет в форму глину, затем руками давит эту глину.</t>
   </si>
   <si>
-    <t xml:space="preserve">Эхха кепла гьирц1о гъижихи бук1ай амале. </t>
+    <t xml:space="preserve">Эхха кепла гьирцIо гъижихи букIай амале. </t>
   </si>
   <si>
     <t xml:space="preserve">Потом берет эту форму, поднимает на плечи.</t>
   </si>
   <si>
-    <t xml:space="preserve">К1ейхоб букхата-к1о ригьуди чинкурла ибху кеп гьинуку аржай букке.</t>
+    <t xml:space="preserve">КIейхоб букхата-кIо ригьуди чинкурла ибху кеп гьинуку аржай букке.</t>
   </si>
   <si>
     <t xml:space="preserve">Когда режет второй кирпич, берет тряпку и смачивает форму изнутри.</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Вот так режут по очереди кирпичи.</t>
   </si>
   <si>
-    <t xml:space="preserve">Букъу булъариуди керпеч букъуй бете, эхха уда — ара ссардай амал игье бекъа бекъу1-талу.</t>
+    <t xml:space="preserve">Букъу булъариуди керпеч букъуй бете, эхха уда — ара ссардай амал игье бекъа бекъуI-талу.</t>
   </si>
   <si>
     <t xml:space="preserve">После резки кирпичи оставляют сохнуть, потом поворачивают то на один бок, то на другой для сушки.</t>
@@ -104,11 +104,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -124,12 +125,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,12 +169,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -207,13 +198,13 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.8"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -224,7 +215,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
